--- a/output/comparacion_modelos.xlsx
+++ b/output/comparacion_modelos.xlsx
@@ -8,22 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macbookair/Documents/GitHub/intergroup-aci/output/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD0F855F-1854-3C46-830E-758DE8458E97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69F05C6B-14B3-2245-BEDA-942D76859B7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="15500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="m_ri_con_d1  " sheetId="1" r:id="rId1"/>
+    <sheet name="m_ri_con_d1" sheetId="1" r:id="rId1"/>
     <sheet name="m_ri_con_d2" sheetId="2" r:id="rId2"/>
     <sheet name="m2_ri_con_d1" sheetId="3" r:id="rId3"/>
     <sheet name="m2_ri_con_d2" sheetId="4" r:id="rId4"/>
+    <sheet name="m3_con_d1" sheetId="5" r:id="rId5"/>
+    <sheet name="m3_con_d2" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="81">
   <si>
     <t>lhs</t>
   </si>
@@ -58,100 +60,100 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>[-0.07-0.078]</t>
+    <t>[-0.049-0.07]</t>
+  </si>
+  <si>
+    <t>cz1</t>
+  </si>
+  <si>
+    <t>[-0.073-0.06]</t>
+  </si>
+  <si>
+    <t>cy1</t>
+  </si>
+  <si>
+    <t>[-0.103-0.043]</t>
+  </si>
+  <si>
+    <t>sex</t>
+  </si>
+  <si>
+    <t>[-0.056-0.115]</t>
+  </si>
+  <si>
+    <t>ess</t>
+  </si>
+  <si>
+    <t>[-0.035-0.02]</t>
+  </si>
+  <si>
+    <t>cy3</t>
+  </si>
+  <si>
+    <t>cx2</t>
+  </si>
+  <si>
+    <t>[-0.041-0.096]</t>
   </si>
   <si>
     <t>cz2</t>
   </si>
   <si>
-    <t>[-2.244-2.736]</t>
-  </si>
-  <si>
-    <t>cy1</t>
-  </si>
-  <si>
-    <t>[-0.135-0.058]</t>
-  </si>
-  <si>
-    <t>sex</t>
-  </si>
-  <si>
-    <t>[-0.189-0.295]</t>
-  </si>
-  <si>
-    <t>ess</t>
-  </si>
-  <si>
-    <t>[-0.036-0.019]</t>
-  </si>
-  <si>
-    <t>cy3</t>
-  </si>
-  <si>
-    <t>cx2</t>
-  </si>
-  <si>
-    <t>[-0.038-0.099]</t>
+    <t>[-0.068-0.087]</t>
+  </si>
+  <si>
+    <t>[-0.092-0.054]</t>
+  </si>
+  <si>
+    <t>[-0.082-0.084]</t>
+  </si>
+  <si>
+    <t>[-0.026-0.026]</t>
+  </si>
+  <si>
+    <t>cy4</t>
+  </si>
+  <si>
+    <t>cx3</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>[0.002-0.127]</t>
   </si>
   <si>
     <t>cz3</t>
   </si>
   <si>
-    <t>[-1.632-1.297]</t>
-  </si>
-  <si>
-    <t>[-0.109-0.086]</t>
-  </si>
-  <si>
-    <t>[-0.117-0.105]</t>
-  </si>
-  <si>
-    <t>[-0.028-0.029]</t>
-  </si>
-  <si>
-    <t>cy4</t>
-  </si>
-  <si>
-    <t>cx3</t>
-  </si>
-  <si>
-    <t>*</t>
-  </si>
-  <si>
-    <t>[0.002-0.186]</t>
-  </si>
-  <si>
-    <t>cz4</t>
-  </si>
-  <si>
-    <t>[-1.272-0.558]</t>
+    <t>[-0.043-0.12]</t>
   </si>
   <si>
     <t>.</t>
   </si>
   <si>
-    <t>[-0.011-0.355]</t>
-  </si>
-  <si>
-    <t>[-0.141-0.088]</t>
-  </si>
-  <si>
-    <t>[-0.032-0.034]</t>
-  </si>
-  <si>
-    <t>[-0.015-0.084]</t>
-  </si>
-  <si>
-    <t>[-1.148-0.87]</t>
-  </si>
-  <si>
-    <t>[-0.075-0.1]</t>
-  </si>
-  <si>
-    <t>[-0.029-0.078]</t>
-  </si>
-  <si>
-    <t>[-0.023-0.014]</t>
+    <t>[-0.001-0.203]</t>
+  </si>
+  <si>
+    <t>[-0.103-0.082]</t>
+  </si>
+  <si>
+    <t>[-0.027-0.029]</t>
+  </si>
+  <si>
+    <t>[-0.012-0.071]</t>
+  </si>
+  <si>
+    <t>[-0.039-0.052]</t>
+  </si>
+  <si>
+    <t>[-0.053-0.058]</t>
+  </si>
+  <si>
+    <t>[-0.028-0.077]</t>
+  </si>
+  <si>
+    <t>[-0.021-0.013]</t>
   </si>
   <si>
     <t>[-0.048-0.059]</t>
@@ -202,31 +204,70 @@
     <t>[-0.063-0.045]</t>
   </si>
   <si>
-    <t>[-0.021-0.013]</t>
+    <t>[0.032-0.128]</t>
+  </si>
+  <si>
+    <t>[-0.071-0.038]</t>
+  </si>
+  <si>
+    <t>***</t>
+  </si>
+  <si>
+    <t>[0.126-0.29]</t>
+  </si>
+  <si>
+    <t>[-0.112-0.075]</t>
+  </si>
+  <si>
+    <t>[-0.024-0.032]</t>
+  </si>
+  <si>
+    <t>[-0.07-0.039]</t>
+  </si>
+  <si>
+    <t>[0.127-0.29]</t>
+  </si>
+  <si>
+    <t>[-0.094-0.088]</t>
+  </si>
+  <si>
+    <t>[-0.023-0.031]</t>
+  </si>
+  <si>
+    <t>RI-CLPM for attitude towards lower class people by quantity and quality of contact with lower class people and control variables.</t>
   </si>
   <si>
     <t>Source: own elaboration with pooled data from ELSOC 2018-2023 (n = 1519)</t>
   </si>
   <si>
-    <t xml:space="preserve">RI-CLPM for attitude towards lower class people by quantity and quality of contact with lower class people and control variables.		</t>
-  </si>
-  <si>
     <t>Note^1: ***p &lt; 0.001; **p &lt; 0.01; *p &lt; 0.05; .p &lt; 0.1</t>
   </si>
   <si>
-    <t xml:space="preserve">RI-CLPM constrained for attitude towards lower class people by quantity and quality of contact with lower class people and control variables.		</t>
-  </si>
-  <si>
     <t>Note^2: cy = attitude towards lower class people; cx = quantity of contact with lower class people; cz = quality of contact with lower class people; sex = sex; ses = subjective social status</t>
   </si>
   <si>
-    <t xml:space="preserve">RI-CLPM for attitude towards lower class people by frequency of negative contact with lower class people and control variables.		</t>
+    <t>RI-CLPM constrained for attitude towards lower class people by quantity and quality of contact with lower class people and control variables.</t>
   </si>
   <si>
     <t>Note^2: cy = attitude towards lower class people; cx = frequency of negative contact with lower class people; sex = sex; ses = subjective social status</t>
   </si>
   <si>
-    <t xml:space="preserve">RI-CLPM constrained for attitude towards lower class people by frequency of negative contact with lower class people and control variables.		</t>
+    <t>RI-CLPM for attitude towards lower class people by frequency of negative contact with lower class people and control variables.</t>
+  </si>
+  <si>
+    <t>RI-CLPM constrained for attitude towards lower class people by frequency of negative contact with lower class people and control variables.</t>
+  </si>
+  <si>
+    <t>Note^2: cy = attitude towards lower class people; cx= quantity of contact with lower class people; cz = frequency of negative contact with lower class people; sex = sex; ses = subjective social status</t>
+  </si>
+  <si>
+    <t>CLPM for attitude towards lower class people by quantity of contact with lower class people, frequency of negative contact with lower class people and control variables.</t>
+  </si>
+  <si>
+    <t>CLPM constrained for attitude towards lower class people by quantity of contact with lower class people, frequency of negative contact with lower class people and control variables.</t>
+  </si>
+  <si>
+    <t>Source: own elaboration with pooled data from ELSOC 2022-2023 (n = 1519)</t>
   </si>
 </sst>
 </file>
@@ -278,20 +319,24 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
+      <top style="medium">
         <color indexed="64"/>
-      </bottom>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -299,13 +344,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -612,25 +656,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="7" max="7" width="11.33203125" customWidth="1"/>
+    <col min="7" max="7" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="47" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
+    <row r="1" spans="1:7" ht="34" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
     </row>
     <row r="2" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -666,10 +710,10 @@
         <v>9</v>
       </c>
       <c r="D3">
-        <v>4.2740572536871229E-3</v>
+        <v>1.0544307324601239E-2</v>
       </c>
       <c r="E3">
-        <v>3.7790676897989248E-2</v>
+        <v>3.046805628637134E-2</v>
       </c>
       <c r="F3" t="s">
         <v>10</v>
@@ -689,10 +733,10 @@
         <v>12</v>
       </c>
       <c r="D4">
-        <v>0.24596635283135351</v>
+        <v>-6.4985837046912347E-3</v>
       </c>
       <c r="E4">
-        <v>1.270361347754706</v>
+        <v>3.3715334494526197E-2</v>
       </c>
       <c r="F4" t="s">
         <v>10</v>
@@ -712,10 +756,10 @@
         <v>14</v>
       </c>
       <c r="D5">
-        <v>-3.8352094025645489E-2</v>
+        <v>-2.9955159309501649E-2</v>
       </c>
       <c r="E5">
-        <v>4.9098678918443828E-2</v>
+        <v>3.7216996491352572E-2</v>
       </c>
       <c r="F5" t="s">
         <v>10</v>
@@ -735,10 +779,10 @@
         <v>16</v>
       </c>
       <c r="D6">
-        <v>5.3139356975583252E-2</v>
+        <v>2.96500338582672E-2</v>
       </c>
       <c r="E6">
-        <v>0.12329321623617109</v>
+        <v>4.3518998857183133E-2</v>
       </c>
       <c r="F6" t="s">
         <v>10</v>
@@ -758,10 +802,10 @@
         <v>18</v>
       </c>
       <c r="D7">
-        <v>-8.4330170840839144E-3</v>
+        <v>-7.4072845452644864E-3</v>
       </c>
       <c r="E7">
-        <v>1.4040243513355141E-2</v>
+        <v>1.390932125729143E-2</v>
       </c>
       <c r="F7" t="s">
         <v>10</v>
@@ -781,10 +825,10 @@
         <v>21</v>
       </c>
       <c r="D8">
-        <v>3.0319368396863559E-2</v>
+        <v>2.7681237130949991E-2</v>
       </c>
       <c r="E8">
-        <v>3.5089027344139517E-2</v>
+        <v>3.4958239926133318E-2</v>
       </c>
       <c r="F8" t="s">
         <v>10</v>
@@ -804,10 +848,10 @@
         <v>23</v>
       </c>
       <c r="D9">
-        <v>-0.16733377189353291</v>
+        <v>9.586056807166338E-3</v>
       </c>
       <c r="E9">
-        <v>0.74732962431783467</v>
+        <v>3.956302234763915E-2</v>
       </c>
       <c r="F9" t="s">
         <v>10</v>
@@ -827,10 +871,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>-1.1159300655668759E-2</v>
+        <v>-1.910757502684271E-2</v>
       </c>
       <c r="E10">
-        <v>4.9701604490582078E-2</v>
+        <v>3.7102680583054201E-2</v>
       </c>
       <c r="F10" t="s">
         <v>10</v>
@@ -850,10 +894,10 @@
         <v>16</v>
       </c>
       <c r="D11">
-        <v>-6.3664347542939171E-3</v>
+        <v>1.196543404243742E-3</v>
       </c>
       <c r="E11">
-        <v>5.6671767107046057E-2</v>
+        <v>4.2390518353555853E-2</v>
       </c>
       <c r="F11" t="s">
         <v>10</v>
@@ -873,10 +917,10 @@
         <v>18</v>
       </c>
       <c r="D12">
-        <v>6.4465172424830422E-4</v>
+        <v>-1.965447154492838E-4</v>
       </c>
       <c r="E12">
-        <v>1.469566669189783E-2</v>
+        <v>1.3383867110245379E-2</v>
       </c>
       <c r="F12" t="s">
         <v>10</v>
@@ -896,10 +940,10 @@
         <v>29</v>
       </c>
       <c r="D13">
-        <v>9.4070690386962766E-2</v>
+        <v>6.4630579255931367E-2</v>
       </c>
       <c r="E13">
-        <v>4.7124954081457393E-2</v>
+        <v>3.1941106932165571E-2</v>
       </c>
       <c r="F13" t="s">
         <v>30</v>
@@ -919,10 +963,10 @@
         <v>32</v>
       </c>
       <c r="D14">
-        <v>-0.35681046095766739</v>
+        <v>3.8291893697708169E-2</v>
       </c>
       <c r="E14">
-        <v>0.46689004330869238</v>
+        <v>4.1675038370646587E-2</v>
       </c>
       <c r="F14" t="s">
         <v>10</v>
@@ -942,10 +986,10 @@
         <v>20</v>
       </c>
       <c r="D15">
-        <v>0.17170122699224449</v>
+        <v>0.1011076009339686</v>
       </c>
       <c r="E15">
-        <v>9.3361421693369015E-2</v>
+        <v>5.1849243040432751E-2</v>
       </c>
       <c r="F15" t="s">
         <v>34</v>
@@ -965,10 +1009,10 @@
         <v>16</v>
       </c>
       <c r="D16">
-        <v>-2.61153238222754E-2</v>
+        <v>-1.085137405282092E-2</v>
       </c>
       <c r="E16">
-        <v>5.8377147987655378E-2</v>
+        <v>4.7196602524152982E-2</v>
       </c>
       <c r="F16" t="s">
         <v>10</v>
@@ -978,67 +1022,67 @@
       </c>
     </row>
     <row r="17" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="6" t="s">
+      <c r="A17" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C17" s="6" t="s">
+      <c r="B17" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D17" s="6">
-        <v>7.9895069841306717E-4</v>
-      </c>
-      <c r="E17" s="6">
-        <v>1.6881392364671569E-2</v>
-      </c>
-      <c r="F17" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="G17" s="6" t="s">
+      <c r="D17" s="2">
+        <v>1.039080399293825E-3</v>
+      </c>
+      <c r="E17" s="2">
+        <v>1.4342123606387961E-2</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G17" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="16" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-    </row>
-    <row r="20" spans="1:7" ht="47" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
+      <c r="A19" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+    </row>
+    <row r="20" spans="1:7" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A18:G18"/>
     <mergeCell ref="A19:G19"/>
     <mergeCell ref="A20:G20"/>
+    <mergeCell ref="A18:G18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1048,27 +1092,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="7" max="7" width="13" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" ht="38" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="34" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+    </row>
+    <row r="2" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1102,10 +1143,10 @@
         <v>9</v>
       </c>
       <c r="D3">
-        <v>3.4885583790694903E-2</v>
+        <v>2.9561036688371671E-2</v>
       </c>
       <c r="E3">
-        <v>2.526813089959952E-2</v>
+        <v>2.0983980023967081E-2</v>
       </c>
       <c r="F3" t="s">
         <v>10</v>
@@ -1125,10 +1166,10 @@
         <v>12</v>
       </c>
       <c r="D4">
-        <v>-0.13904582489281569</v>
+        <v>6.5932651953889828E-3</v>
       </c>
       <c r="E4">
-        <v>0.51478392591571398</v>
+        <v>2.3415569361685609E-2</v>
       </c>
       <c r="F4" t="s">
         <v>10</v>
@@ -1148,10 +1189,10 @@
         <v>14</v>
       </c>
       <c r="D5">
-        <v>1.264232472063012E-2</v>
+        <v>2.438975129365196E-3</v>
       </c>
       <c r="E5">
-        <v>4.475679994578162E-2</v>
+        <v>2.83335137455329E-2</v>
       </c>
       <c r="F5" t="s">
         <v>10</v>
@@ -1171,10 +1212,10 @@
         <v>16</v>
       </c>
       <c r="D6">
-        <v>2.4492814739904539E-2</v>
+        <v>2.4811691283433471E-2</v>
       </c>
       <c r="E6">
-        <v>2.7050767505834811E-2</v>
+        <v>2.673569868845329E-2</v>
       </c>
       <c r="F6" t="s">
         <v>10</v>
@@ -1184,60 +1225,60 @@
       </c>
     </row>
     <row r="7" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="6" t="s">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="6">
-        <v>-4.339539197175636E-3</v>
-      </c>
-      <c r="E7" s="6">
-        <v>9.3248094197649605E-3</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="G7" s="6" t="s">
+      <c r="D7">
+        <v>-4.0210746345370717E-3</v>
+      </c>
+      <c r="E7">
+        <v>8.6448036911901654E-3</v>
+      </c>
+      <c r="F7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="16" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-    </row>
-    <row r="10" spans="1:7" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
+      <c r="A9" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+    </row>
+    <row r="10" spans="1:7" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -1254,25 +1295,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A15" sqref="A15:G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="7" max="7" width="12.6640625" customWidth="1"/>
+    <col min="7" max="7" width="15.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="43" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
+    <row r="1" spans="1:7" ht="49" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
     </row>
     <row r="2" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -1551,67 +1592,67 @@
       </c>
     </row>
     <row r="14" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
+      <c r="A14" t="s">
         <v>28</v>
       </c>
-      <c r="B14" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" s="6" t="s">
+      <c r="B14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" t="s">
         <v>18</v>
       </c>
-      <c r="D14" s="6">
+      <c r="D14">
         <v>-2.2337815072641471E-3</v>
       </c>
-      <c r="E14" s="6">
+      <c r="E14">
         <v>1.419442590538497E-2</v>
       </c>
-      <c r="F14" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="G14" s="6" t="s">
+      <c r="F14" t="s">
+        <v>10</v>
+      </c>
+      <c r="G14" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="16" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-    </row>
-    <row r="17" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
+      <c r="A16" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+    </row>
+    <row r="17" spans="1:7" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="A1:G1"/>
     <mergeCell ref="A15:G15"/>
     <mergeCell ref="A16:G16"/>
     <mergeCell ref="A17:G17"/>
+    <mergeCell ref="A1:G1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1621,25 +1662,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="7" max="7" width="17" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
+    <row r="1" spans="1:7" s="1" customFormat="1" ht="54" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -1675,10 +1713,10 @@
         <v>9</v>
       </c>
       <c r="D3">
-        <v>1.7817208202819741E-2</v>
+        <v>1.7817208202815321E-2</v>
       </c>
       <c r="E3">
-        <v>1.9956495185347579E-2</v>
+        <v>1.995649518550981E-2</v>
       </c>
       <c r="F3" t="s">
         <v>10</v>
@@ -1698,10 +1736,10 @@
         <v>14</v>
       </c>
       <c r="D4">
-        <v>1.2041708045366009E-2</v>
+        <v>1.2041708045367231E-2</v>
       </c>
       <c r="E4">
-        <v>2.7541523985926231E-2</v>
+        <v>2.754152398665579E-2</v>
       </c>
       <c r="F4" t="s">
         <v>10</v>
@@ -1721,10 +1759,10 @@
         <v>16</v>
       </c>
       <c r="D5">
-        <v>-8.9380000012321686E-3</v>
+        <v>-8.93800000122651E-3</v>
       </c>
       <c r="E5">
-        <v>2.762664161409906E-2</v>
+        <v>2.7626641614728199E-2</v>
       </c>
       <c r="F5" t="s">
         <v>10</v>
@@ -1734,60 +1772,60 @@
       </c>
     </row>
     <row r="6" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="6" t="s">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="6">
-        <v>-4.1166973866373817E-3</v>
-      </c>
-      <c r="E6" s="6">
-        <v>8.672286069136774E-3</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="16" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
+      <c r="D6">
+        <v>-4.1166973866362056E-3</v>
+      </c>
+      <c r="E6">
+        <v>8.6722860692633255E-3</v>
+      </c>
+      <c r="F6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-    </row>
-    <row r="9" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
+      <c r="A8" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+    </row>
+    <row r="9" spans="1:7" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -1798,4 +1836,410 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:G10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:7" s="1" customFormat="1" ht="55" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3">
+        <v>7.9828137662553492E-2</v>
+      </c>
+      <c r="E3">
+        <v>2.4440180774923121E-2</v>
+      </c>
+      <c r="F3" t="s">
+        <v>52</v>
+      </c>
+      <c r="G3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4">
+        <v>-1.6278795181618979E-2</v>
+      </c>
+      <c r="E4">
+        <v>2.7817731880520169E-2</v>
+      </c>
+      <c r="F4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5">
+        <v>0.2079795622902513</v>
+      </c>
+      <c r="E5">
+        <v>4.1624331057739328E-2</v>
+      </c>
+      <c r="F5" t="s">
+        <v>61</v>
+      </c>
+      <c r="G5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6">
+        <v>-1.8517059737642162E-2</v>
+      </c>
+      <c r="E6">
+        <v>4.7500544426449673E-2</v>
+      </c>
+      <c r="F6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7">
+        <v>3.7300930505213578E-3</v>
+      </c>
+      <c r="E7">
+        <v>1.4262823935287531E-2</v>
+      </c>
+      <c r="F7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+    </row>
+    <row r="9" spans="1:7" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+    </row>
+    <row r="10" spans="1:7" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A8:G8"/>
+    <mergeCell ref="A9:G9"/>
+    <mergeCell ref="A10:G10"/>
+    <mergeCell ref="A1:G1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:G10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:7" s="1" customFormat="1" ht="55" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+    </row>
+    <row r="2" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3">
+        <v>8.0245196746975236E-2</v>
+      </c>
+      <c r="E3">
+        <v>2.4437240443824729E-2</v>
+      </c>
+      <c r="F3" t="s">
+        <v>52</v>
+      </c>
+      <c r="G3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4">
+        <v>-1.515071789598149E-2</v>
+      </c>
+      <c r="E4">
+        <v>2.78345358680663E-2</v>
+      </c>
+      <c r="F4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5">
+        <v>0.20815690673960729</v>
+      </c>
+      <c r="E5">
+        <v>4.1610985014416423E-2</v>
+      </c>
+      <c r="F5" t="s">
+        <v>61</v>
+      </c>
+      <c r="G5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6">
+        <v>-2.7726917236334339E-3</v>
+      </c>
+      <c r="E6">
+        <v>4.6293922505324832E-2</v>
+      </c>
+      <c r="F6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7">
+        <v>4.0853078369803338E-3</v>
+      </c>
+      <c r="E7">
+        <v>1.3803950445506251E-2</v>
+      </c>
+      <c r="F7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+    </row>
+    <row r="10" spans="1:7" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A8:G8"/>
+    <mergeCell ref="A9:G9"/>
+    <mergeCell ref="A10:G10"/>
+    <mergeCell ref="A1:G1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>